--- a/target/test-classes/TestData.xlsx
+++ b/target/test-classes/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium\Bees\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA475AF-E77E-4F68-8087-DD1BA459128D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFBFA22-4DD3-444E-AFC4-C376AB547E89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tincupDatasheet" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,14 @@
     <sheet name="candleScent" sheetId="6" r:id="rId4"/>
     <sheet name="windowTitle" sheetId="9" r:id="rId5"/>
     <sheet name="sortBy" sheetId="10" r:id="rId6"/>
-    <sheet name="coffeeDatasheet" sheetId="4" r:id="rId7"/>
-    <sheet name="candleDatasheet" sheetId="5" r:id="rId8"/>
-    <sheet name="soapProduct" sheetId="7" r:id="rId9"/>
-    <sheet name="coffeeFlavour" sheetId="8" r:id="rId10"/>
+    <sheet name="ascendingPrices" sheetId="11" r:id="rId7"/>
+    <sheet name="descPrices" sheetId="12" r:id="rId8"/>
+    <sheet name="aToz" sheetId="13" r:id="rId9"/>
+    <sheet name="zToa" sheetId="14" r:id="rId10"/>
+    <sheet name="coffeeDatasheet" sheetId="4" r:id="rId11"/>
+    <sheet name="candleDatasheet" sheetId="5" r:id="rId12"/>
+    <sheet name="soapProduct" sheetId="7" r:id="rId13"/>
+    <sheet name="coffeeFlavour" sheetId="8" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>Organic</t>
   </si>
@@ -115,13 +119,43 @@
   </si>
   <si>
     <t>Reference: Highest first</t>
+  </si>
+  <si>
+    <t>$16.00</t>
+  </si>
+  <si>
+    <t>$12.50</t>
+  </si>
+  <si>
+    <t>$14.50</t>
+  </si>
+  <si>
+    <t>$18.00</t>
+  </si>
+  <si>
+    <t>$22.00</t>
+  </si>
+  <si>
+    <t>COFFEE</t>
+  </si>
+  <si>
+    <t>TEA</t>
+  </si>
+  <si>
+    <t>TIN CUP</t>
+  </si>
+  <si>
+    <t>MUG</t>
+  </si>
+  <si>
+    <t>HONEY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +174,18 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF777777"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF777777"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -195,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -205,6 +251,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,49 +583,56 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899A857B-CFC9-4D4A-BE02-87BD3D62A80A}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87D1F90-5030-4F7C-98E5-C1F975FA6862}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3AC286-C456-49FE-9351-A5F052BF5972}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C538B5E7-71C6-4A53-AC53-E20F52A006BE}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -593,196 +656,6 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0E5375-B15A-47BD-A521-9C6E52A838AC}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A542FAA0-0315-4821-B504-D92E9070E95A}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7832540-AD43-4F66-A2F1-1EC8B6262F3E}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F3CC84-1422-4907-B59B-A951DB3992E3}">
-  <dimension ref="A1:A8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3AC286-C456-49FE-9351-A5F052BF5972}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -791,7 +664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721AFE94-3257-483B-9E14-84D5E3226EA6}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -835,7 +708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19721701-ED6C-4D9B-8440-13411DA5BDCD}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -866,4 +739,352 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899A857B-CFC9-4D4A-BE02-87BD3D62A80A}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C538B5E7-71C6-4A53-AC53-E20F52A006BE}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0E5375-B15A-47BD-A521-9C6E52A838AC}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A542FAA0-0315-4821-B504-D92E9070E95A}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7832540-AD43-4F66-A2F1-1EC8B6262F3E}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F3CC84-1422-4907-B59B-A951DB3992E3}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A0042E-6B3E-4A77-908B-5915D1425CD6}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A21C09-86F4-47BF-946A-1DFA008DC5E1}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D286990F-4A08-4BE3-8ED5-BA469CC6BBDB}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>